--- a/01-Excel/3/Activities/06-Evr_PigeonRacing-Filter/Unsolved/PigeonRacing.xlsx
+++ b/01-Excel/3/Activities/06-Evr_PigeonRacing-Filter/Unsolved/PigeonRacing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\06-Evr_PigeonRacing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/DataViz-Lesson-Plans_Active/01-Lesson-Plans/01-Excel/3/Activities/06-Evr_PigeonRacing-Filter/Unsolved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="33A212CC78098E65085786FED540EAF82FC67307" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{19204952-0979-4CF0-BDC4-F307713A6702}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F10427-7380-8747-9238-AE38A888CD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="14070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="24120" yWindow="500" windowWidth="25760" windowHeight="17460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'pigeon-racing'!$A$1:$K$401</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="13" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2328,6 +2339,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -2343,6 +2395,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -9267,7 +9360,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" subtotalTop="0" showAll="0">
@@ -10402,14 +10495,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>553</v>
       </c>
@@ -10420,7 +10513,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -10431,7 +10524,7 @@
         <v>163.13900000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -10442,7 +10535,7 @@
         <v>172.155</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>554</v>
       </c>
@@ -10463,16 +10556,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K401"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="20.73046875" customWidth="1"/>
+    <col min="1" max="11" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10507,7 +10598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10539,7 +10630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10571,7 +10662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10606,7 +10697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10638,7 +10729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10670,7 +10761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10702,7 +10793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10734,7 +10825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10766,7 +10857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10798,7 +10889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10830,7 +10921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10862,7 +10953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10894,7 +10985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10926,7 +11017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10958,7 +11049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10990,7 +11081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11022,7 +11113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11054,7 +11145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11086,7 +11177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11118,7 +11209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11150,7 +11241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11182,7 +11273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11214,7 +11305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11246,7 +11337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11278,7 +11369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11310,7 +11401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11342,7 +11433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11374,7 +11465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11406,7 +11497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11438,7 +11529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11470,7 +11561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11502,7 +11593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11534,7 +11625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11566,7 +11657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -11598,7 +11689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11630,7 +11721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11665,7 +11756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11697,7 +11788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11729,7 +11820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11761,7 +11852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11793,7 +11884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11825,7 +11916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11857,7 +11948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11889,7 +11980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11921,7 +12012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11953,7 +12044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11985,7 +12076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12017,7 +12108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12049,7 +12140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12081,7 +12172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12113,7 +12204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12145,7 +12236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12177,7 +12268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12209,7 +12300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12241,7 +12332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12273,7 +12364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12305,7 +12396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12337,7 +12428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12369,7 +12460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12401,7 +12492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12433,7 +12524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12465,7 +12556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12497,7 +12588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12529,7 +12620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12561,7 +12652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12593,7 +12684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12625,7 +12716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12660,7 +12751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12692,7 +12783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12724,7 +12815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12756,7 +12847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12791,7 +12882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12823,7 +12914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -12855,7 +12946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12887,7 +12978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12919,7 +13010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12951,7 +13042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12983,7 +13074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -13015,7 +13106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -13047,7 +13138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -13079,7 +13170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -13111,7 +13202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13143,7 +13234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13175,7 +13266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13207,7 +13298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13239,7 +13330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13271,7 +13362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13306,7 +13397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13338,7 +13429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13370,7 +13461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13402,7 +13493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13434,7 +13525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -13466,7 +13557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13498,7 +13589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13530,7 +13621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -13562,7 +13653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -13594,7 +13685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -13626,7 +13717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -13658,7 +13749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -13690,7 +13781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -13722,7 +13813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -13754,7 +13845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -13786,7 +13877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -13818,7 +13909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -13850,7 +13941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -13882,7 +13973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -13914,7 +14005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -13946,7 +14037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -13978,7 +14069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -14010,7 +14101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -14042,7 +14133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -14074,7 +14165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -14106,7 +14197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -14138,7 +14229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -14170,7 +14261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -14202,7 +14293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -14234,7 +14325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -14266,7 +14357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -14298,7 +14389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -14330,7 +14421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -14362,7 +14453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -14394,7 +14485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -14426,7 +14517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -14458,7 +14549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14490,7 +14581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -14522,7 +14613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14554,7 +14645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14586,7 +14677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14618,7 +14709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14650,7 +14741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14682,7 +14773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14714,7 +14805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -14746,7 +14837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14778,7 +14869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14810,7 +14901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -14842,7 +14933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -14874,7 +14965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -14906,7 +14997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -14938,7 +15029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -14970,7 +15061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15002,7 +15093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15034,7 +15125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15066,7 +15157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -15098,7 +15189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15130,7 +15221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -15162,7 +15253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -15194,7 +15285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -15226,7 +15317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -15258,7 +15349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -15290,7 +15381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -15322,7 +15413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -15354,7 +15445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -15386,7 +15477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -15418,7 +15509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -15450,7 +15541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -15482,7 +15573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -15517,7 +15608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -15549,7 +15640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -15581,7 +15672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -15613,7 +15704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -15645,7 +15736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -15677,7 +15768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -15709,7 +15800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -15741,7 +15832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -15773,7 +15864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -15805,7 +15896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -15837,7 +15928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -15869,7 +15960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -15901,7 +15992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -15933,7 +16024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -15965,7 +16056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -15997,7 +16088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -16032,7 +16123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -16064,7 +16155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -16096,7 +16187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -16128,7 +16219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -16160,7 +16251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -16192,7 +16283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -16224,7 +16315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -16256,7 +16347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -16288,7 +16379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -16320,7 +16411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -16352,7 +16443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -16384,7 +16475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -16416,7 +16507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -16448,7 +16539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -16480,7 +16571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -16512,7 +16603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -16544,7 +16635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -16576,7 +16667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -16608,7 +16699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -16640,7 +16731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -16672,7 +16763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -16707,7 +16798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -16739,7 +16830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -16771,7 +16862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -16803,7 +16894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -16835,7 +16926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -16867,7 +16958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -16899,7 +16990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -16931,7 +17022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -16963,7 +17054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -16995,7 +17086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -17027,7 +17118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -17059,7 +17150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -17091,7 +17182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -17123,7 +17214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -17155,7 +17246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -17187,7 +17278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -17219,7 +17310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -17251,7 +17342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -17283,7 +17374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -17315,7 +17406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -17347,7 +17438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -17379,7 +17470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -17411,7 +17502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -17443,7 +17534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -17475,7 +17566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -17507,7 +17598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -17539,7 +17630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -17571,7 +17662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -17603,7 +17694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -17635,7 +17726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -17667,7 +17758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -17699,7 +17790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -17731,7 +17822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -17763,7 +17854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -17795,7 +17886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -17827,7 +17918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -17862,7 +17953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -17894,7 +17985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -17926,7 +18017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -17958,7 +18049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -17990,7 +18081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -18022,7 +18113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -18054,7 +18145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -18086,7 +18177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -18118,7 +18209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -18150,7 +18241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -18182,7 +18273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -18214,7 +18305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -18246,7 +18337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -18278,7 +18369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -18310,7 +18401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -18345,7 +18436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -18380,7 +18471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -18412,7 +18503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -18444,7 +18535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -18476,7 +18567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -18508,7 +18599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -18540,7 +18631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -18572,7 +18663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -18604,7 +18695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -18636,7 +18727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -18668,7 +18759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -18700,7 +18791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -18735,7 +18826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -18767,7 +18858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -18799,7 +18890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -18831,7 +18922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -18863,7 +18954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -18895,7 +18986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -18927,7 +19018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -18959,7 +19050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -18991,7 +19082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -19023,7 +19114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -19055,7 +19146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -19087,7 +19178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -19119,7 +19210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -19151,7 +19242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -19183,7 +19274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -19215,7 +19306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -19247,7 +19338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -19279,7 +19370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -19311,7 +19402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -19343,7 +19434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -19375,7 +19466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -19410,7 +19501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -19445,7 +19536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -19477,7 +19568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -19509,7 +19600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -19541,7 +19632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -19573,7 +19664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -19605,7 +19696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -19637,7 +19728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -19669,7 +19760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -19701,7 +19792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -19733,7 +19824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -19765,7 +19856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -19797,7 +19888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -19829,7 +19920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -19861,7 +19952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -19896,7 +19987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -19928,7 +20019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>293</v>
       </c>
@@ -19960,7 +20051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -19992,7 +20083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -20027,7 +20118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -20059,7 +20150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -20091,7 +20182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -20123,7 +20214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -20155,7 +20246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -20187,7 +20278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -20219,7 +20310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -20251,7 +20342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -20283,7 +20374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -20315,7 +20406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -20347,7 +20438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -20379,7 +20470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -20411,7 +20502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -20443,7 +20534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -20475,7 +20566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -20507,7 +20598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -20539,7 +20630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -20571,7 +20662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -20603,7 +20694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -20635,7 +20726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -20667,7 +20758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -20699,7 +20790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -20731,7 +20822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -20763,7 +20854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -20795,7 +20886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -20827,7 +20918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -20859,7 +20950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -20891,7 +20982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -20923,7 +21014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -20955,7 +21046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -20987,7 +21078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -21019,7 +21110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -21051,7 +21142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -21083,7 +21174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -21115,7 +21206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -21147,7 +21238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -21179,7 +21270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -21211,7 +21302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -21246,7 +21337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -21278,7 +21369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -21310,7 +21401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -21342,7 +21433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -21374,7 +21465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -21406,7 +21497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -21438,7 +21529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -21470,7 +21561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -21502,7 +21593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -21534,7 +21625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -21566,7 +21657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -21598,7 +21689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -21630,7 +21721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -21662,7 +21753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -21694,7 +21785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -21726,7 +21817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -21758,7 +21849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
@@ -21790,7 +21881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
@@ -21822,7 +21913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
@@ -21854,7 +21945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
@@ -21886,7 +21977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
@@ -21918,7 +22009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
@@ -21950,7 +22041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
@@ -21982,7 +22073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
@@ -22014,7 +22105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>358</v>
       </c>
@@ -22046,7 +22137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
@@ -22078,7 +22169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
@@ -22110,7 +22201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
@@ -22142,7 +22233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
@@ -22174,7 +22265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>363</v>
       </c>
@@ -22206,7 +22297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
@@ -22238,7 +22329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>365</v>
       </c>
@@ -22270,7 +22361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
@@ -22302,7 +22393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
@@ -22334,7 +22425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
@@ -22366,7 +22457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>369</v>
       </c>
@@ -22401,7 +22492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
@@ -22433,7 +22524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
@@ -22465,7 +22556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
@@ -22497,7 +22588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
@@ -22529,7 +22620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
@@ -22561,7 +22652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
@@ -22593,7 +22684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
@@ -22625,7 +22716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>377</v>
       </c>
@@ -22657,7 +22748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
@@ -22689,7 +22780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>380</v>
       </c>
@@ -22721,7 +22812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>381</v>
       </c>
@@ -22753,7 +22844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>381</v>
       </c>
@@ -22785,7 +22876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>383</v>
       </c>
@@ -22817,7 +22908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>383</v>
       </c>
@@ -22849,7 +22940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
@@ -22881,7 +22972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
@@ -22913,7 +23004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
@@ -22945,7 +23036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>387</v>
       </c>
@@ -22980,7 +23071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
@@ -23012,7 +23103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
@@ -23044,7 +23135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
@@ -23076,7 +23167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
@@ -23108,7 +23199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
@@ -23143,7 +23234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
@@ -23175,7 +23266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
@@ -23207,7 +23298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
@@ -23239,7 +23330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
@@ -23271,7 +23362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
@@ -23303,7 +23394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
@@ -23335,7 +23426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>400</v>
       </c>
